--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2980843.66627884</v>
+        <v>2978591.586567632</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.9164930890881</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>83.56741318567356</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>67.6570845062258</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>213.8614881801126</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.5174356271572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>131.3542190999268</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>103.1686991936197</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235233266</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>249.145125461015</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>216.4795114578124</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730879</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2201.719078084901</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C2" t="n">
-        <v>1832.756561144489</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D2" t="n">
-        <v>1474.490862537738</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4331,13 +4331,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149022</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2588.318918149022</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4489,16 +4489,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1769.123601445793</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1769.123601445793</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1480.020734571437</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1225.33624636555</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>935.919076328589</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>935.919076328589</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308157</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367746</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.172675760995</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348091</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.000731372279</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1794.613518694628</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1539.929030488741</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.51186045178</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,13 +5823,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
@@ -5841,16 +5841,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.73118040114</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.578945309888</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1102.17222437491</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>881.3796452313798</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7397,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>43.26526345294944</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.30196929556016</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2.992517862812974</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>69.70496293143174</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>63.3683537222871</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125673</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739240.762986264</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.609736506</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365058</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184273</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
@@ -26442,22 +26442,22 @@
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184279</v>
-      </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831587.024787539</v>
+        <v>-831587.0247875392</v>
       </c>
       <c r="C6" t="n">
-        <v>497157.7209400538</v>
+        <v>497157.7209400537</v>
       </c>
       <c r="D6" t="n">
         <v>497157.7209400536</v>
       </c>
       <c r="E6" t="n">
-        <v>245932.8099934006</v>
+        <v>245898.072067965</v>
       </c>
       <c r="F6" t="n">
-        <v>571345.2718007562</v>
+        <v>571310.5338753201</v>
       </c>
       <c r="G6" t="n">
-        <v>571345.271800756</v>
+        <v>571310.5338753201</v>
       </c>
       <c r="H6" t="n">
-        <v>571345.2718007559</v>
+        <v>571310.5338753201</v>
       </c>
       <c r="I6" t="n">
-        <v>571345.2718007559</v>
+        <v>571310.5338753203</v>
       </c>
       <c r="J6" t="n">
-        <v>353814.0694034786</v>
+        <v>353779.3314780426</v>
       </c>
       <c r="K6" t="n">
-        <v>571345.2718007562</v>
+        <v>571310.5338753203</v>
       </c>
       <c r="L6" t="n">
-        <v>571345.2718007561</v>
+        <v>571310.5338753206</v>
       </c>
       <c r="M6" t="n">
-        <v>486290.243865244</v>
+        <v>486255.5059398084</v>
       </c>
       <c r="N6" t="n">
-        <v>571345.2718007561</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="O6" t="n">
-        <v>571345.2718007559</v>
+        <v>571310.5338753202</v>
       </c>
       <c r="P6" t="n">
-        <v>571345.2718007561</v>
+        <v>571310.5338753206</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.0138769831736</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.3086325560379</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>122.1119408252161</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>168.0688818921492</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.7205030288964</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090759</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>154.8576191056861</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.656949185851152e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,31 +32783,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316675</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
